--- a/Document/클래스 설계 및 기획.xlsx
+++ b/Document/클래스 설계 및 기획.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psdd2\Desktop\project\G1\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F90428-84B5-471A-8622-B6A689AA1979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63EC73E-CA5C-4F4C-9054-A2B5C12D6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>이번에도 가장 기초적인 몬스터 하나 구현하고 그놈을 상속해서 만들꺼임</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,50 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몹1 흰둥이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이스 유닛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몹2 검둥이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이스 유닛에서 모션이랑 때깔만 갈아 끼우는 수준으로 만들듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몹3 뚱떙이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이스 유닛에서 상속해서 이것저것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몹4 티라노</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 + 근거리 유닛으로 할듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몹5 돌돌이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애도 때깔만 바꿔서 할듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몹6 쪼꼬미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>티라노</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쪼꼬미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>독립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인터페이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +227,26 @@
   </si>
   <si>
     <t>원거리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 쪼꼬미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쫄따구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근/원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚱떙이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임마 넣을까 말까 고민중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,21 +344,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>353240</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114780</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388063</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D780251-DF74-CB16-D77E-E936CDA9FCE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9340E1DC-D677-3D75-6574-65BF2081D41C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -406,8 +374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13716000" y="447675"/>
-          <a:ext cx="5839640" cy="3439005"/>
+          <a:off x="12741088" y="1064559"/>
+          <a:ext cx="2438740" cy="2991267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -420,21 +388,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>515188</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>48100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>87716</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>188642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B1DDDF-D864-2A9B-0E94-80E9455C4C46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F90BEB-F746-EB4A-CCA5-0F01BF890AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -450,8 +418,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13716000" y="4819650"/>
-          <a:ext cx="6001588" cy="3400900"/>
+          <a:off x="12741088" y="4684059"/>
+          <a:ext cx="6239746" cy="2743583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -468,17 +436,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>486609</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38573</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>566548</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>10032</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
+        <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EAB948-307F-D13D-1B3B-AF6DC75EB0C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9CC764-A903-DC31-C468-5E9CA7D80999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -494,8 +462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13716000" y="9429750"/>
-          <a:ext cx="5973009" cy="3391373"/>
+          <a:off x="12741088" y="9581029"/>
+          <a:ext cx="4667901" cy="3629532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -508,21 +476,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>448503</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>48100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>261884</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>163867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
+        <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32885656-0BCC-84FD-0760-1B9E9AD5734C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979742D8-81D2-2562-2218-818DCFF00162}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -538,96 +506,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13716000" y="13830300"/>
-          <a:ext cx="5934903" cy="3400900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>505661</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>86205</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E584DA-969C-5A9B-74F3-629DF7C52A09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13716000" y="18440400"/>
-          <a:ext cx="5992061" cy="3439005"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419924</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>190965</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF1DB88-525D-8B00-469F-1D713DD6D3AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13716000" y="23050500"/>
-          <a:ext cx="5906324" cy="3334215"/>
+          <a:off x="12741088" y="14903824"/>
+          <a:ext cx="1629002" cy="1867161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -902,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:H130"/>
+  <dimension ref="C2:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -922,17 +802,23 @@
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -961,10 +847,10 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -973,271 +859,247 @@
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E36" s="2" t="s">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D37" s="5" t="s">
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="E49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D38" s="3" t="s">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D40" s="3" t="s">
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="4" t="s">
+    <row r="69" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
         <v>55</v>
       </c>
-      <c r="H41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="H63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="H64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H108" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H130" t="s">
-        <v>17</v>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
